--- a/Annotations/New/TheColourOfMagic.xlsx
+++ b/Annotations/New/TheColourOfMagic.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23112" windowHeight="17760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23112" windowHeight="17760"/>
   </bookViews>
   <sheets>
     <sheet name="colourmagic" sheetId="1" r:id="rId1"/>
@@ -1341,14 +1341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="47.5546875" style="2" customWidth="1"/>
@@ -1413,7 +1414,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.19709307539899856</v>
+        <v>0.40245133379712583</v>
       </c>
       <c r="B2" s="2">
         <v>151</v>
@@ -1434,7 +1435,7 @@
     <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83581553268191189</v>
+        <v>0.47126803696695518</v>
       </c>
       <c r="B3" s="2">
         <v>163</v>
@@ -1458,7 +1459,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9741594438682506</v>
+        <v>0.47181131661864983</v>
       </c>
       <c r="B4" s="2">
         <v>99</v>
@@ -1479,7 +1480,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4203786584292718</v>
+        <v>0.8212741797329195</v>
       </c>
       <c r="B5" s="2">
         <v>161</v>
@@ -1503,7 +1504,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22529996714174039</v>
+        <v>0.65040462275604904</v>
       </c>
       <c r="B6" s="2">
         <v>178</v>
@@ -1530,7 +1531,7 @@
     <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8642411066942559E-2</v>
+        <v>0.98180092275345143</v>
       </c>
       <c r="B7" s="2">
         <v>156</v>
@@ -1557,7 +1558,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2663000011184713</v>
+        <v>0.73165290079570278</v>
       </c>
       <c r="B8" s="2">
         <v>116</v>
@@ -1581,7 +1582,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44463259376094366</v>
+        <v>3.326086665494199E-2</v>
       </c>
       <c r="B9" s="2">
         <v>90</v>
@@ -1605,7 +1606,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32190361189175121</v>
+        <v>0.89837830592413348</v>
       </c>
       <c r="B10" s="2">
         <v>108</v>
@@ -1626,7 +1627,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95642517336338795</v>
+        <v>0.42809531142189949</v>
       </c>
       <c r="B11" s="2">
         <v>75</v>
@@ -1650,7 +1651,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33806359870124503</v>
+        <v>8.1229666113299182E-2</v>
       </c>
       <c r="B12" s="2">
         <v>190</v>
@@ -1671,7 +1672,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72149369691026577</v>
+        <v>0.21286525759666164</v>
       </c>
       <c r="B13" s="2">
         <v>192</v>
@@ -1698,7 +1699,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94532540509811747</v>
+        <v>0.82572321003507143</v>
       </c>
       <c r="B14" s="2">
         <v>68</v>
@@ -1719,7 +1720,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94519069035040104</v>
+        <v>0.2892514469922377</v>
       </c>
       <c r="B15" s="2">
         <v>180</v>
@@ -1743,7 +1744,7 @@
     <row r="16" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90128141892615232</v>
+        <v>0.60399404425488956</v>
       </c>
       <c r="B16" s="2">
         <v>176</v>
@@ -1770,7 +1771,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32996445033972754</v>
+        <v>0.65764757814799468</v>
       </c>
       <c r="B17" s="2">
         <v>130</v>
@@ -1794,7 +1795,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75184426345122335</v>
+        <v>0.39027730794702298</v>
       </c>
       <c r="B18" s="2">
         <v>146</v>
@@ -1818,7 +1819,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92848504413051169</v>
+        <v>0.11775993212802638</v>
       </c>
       <c r="B19" s="2">
         <v>196</v>
@@ -1839,7 +1840,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92059967909747931</v>
+        <v>0.12962617122588249</v>
       </c>
       <c r="B20" s="2">
         <v>69</v>
@@ -1860,7 +1861,7 @@
     <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61900137149211754</v>
+        <v>0.30341257171839564</v>
       </c>
       <c r="B21" s="2">
         <v>74</v>
@@ -1881,7 +1882,7 @@
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55317200880951434</v>
+        <v>0.56715699573149769</v>
       </c>
       <c r="B22" s="2">
         <v>87</v>
@@ -1902,7 +1903,7 @@
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47261031811527399</v>
+        <v>0.63103937008324584</v>
       </c>
       <c r="B23" s="2">
         <v>177</v>
@@ -1926,7 +1927,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23748828762225882</v>
+        <v>7.511845398626904E-2</v>
       </c>
       <c r="B24" s="2">
         <v>107</v>
@@ -1950,7 +1951,7 @@
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13880874318935754</v>
+        <v>0.7394878969097467</v>
       </c>
       <c r="B25" s="2">
         <v>106</v>
@@ -1974,7 +1975,7 @@
     <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13093102287557645</v>
+        <v>0.29921531419135483</v>
       </c>
       <c r="B26" s="2">
         <v>155</v>
@@ -1998,7 +1999,7 @@
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5510436945779309</v>
+        <v>0.18502136509138234</v>
       </c>
       <c r="B27" s="2">
         <v>160</v>
@@ -2025,7 +2026,7 @@
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82307745092323414</v>
+        <v>0.97707613452515818</v>
       </c>
       <c r="B28" s="2">
         <v>113</v>
@@ -2049,7 +2050,7 @@
     <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59967732327247503</v>
+        <v>0.43988542085537652</v>
       </c>
       <c r="B29" s="2">
         <v>175</v>
@@ -2073,7 +2074,7 @@
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86059917604248748</v>
+        <v>1.0062470013790237E-2</v>
       </c>
       <c r="B30" s="2">
         <v>183</v>
@@ -2100,7 +2101,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6543031188092191</v>
+        <v>0.80054089193263167</v>
       </c>
       <c r="B31" s="2">
         <v>170</v>
@@ -2121,7 +2122,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38725064248151431</v>
+        <v>0.12336093421835204</v>
       </c>
       <c r="B32" s="2">
         <v>86</v>
@@ -2142,7 +2143,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6895889181036754E-2</v>
+        <v>0.96487400600651152</v>
       </c>
       <c r="B33" s="2">
         <v>191</v>
@@ -2166,7 +2167,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.20630118393523833</v>
+        <v>0.98507656375495656</v>
       </c>
       <c r="B34" s="2">
         <v>109</v>
@@ -2190,7 +2191,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79253686623262032</v>
+        <v>0.85099878586470423</v>
       </c>
       <c r="B35" s="2">
         <v>102</v>
@@ -2217,7 +2218,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76472383669252064</v>
+        <v>0.56179081195232228</v>
       </c>
       <c r="B36" s="2">
         <v>126</v>
@@ -2241,7 +2242,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87077920333936532</v>
+        <v>0.57823812280060993</v>
       </c>
       <c r="B37" s="2">
         <v>136</v>
@@ -2268,7 +2269,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86680491845562557</v>
+        <v>0.18888697425294432</v>
       </c>
       <c r="B38" s="2">
         <v>110</v>
@@ -2292,7 +2293,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15877657906570186</v>
+        <v>0.8335559182926312</v>
       </c>
       <c r="B39" s="2">
         <v>111</v>
@@ -2316,7 +2317,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77000512969687573</v>
+        <v>0.39465406273315207</v>
       </c>
       <c r="B40" s="2">
         <v>81</v>
@@ -2337,7 +2338,7 @@
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55475881876313526</v>
+        <v>0.42910228829113473</v>
       </c>
       <c r="B41" s="2">
         <v>174</v>
@@ -2358,7 +2359,7 @@
     <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65212158409335097</v>
+        <v>0.30679049274647296</v>
       </c>
       <c r="B42" s="2">
         <v>72</v>
@@ -2382,7 +2383,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4076767396827123E-2</v>
+        <v>0.50409213584386214</v>
       </c>
       <c r="B43" s="2">
         <v>138</v>
@@ -2406,7 +2407,7 @@
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94453194372200089</v>
+        <v>0.91831414772545772</v>
       </c>
       <c r="B44" s="2">
         <v>123</v>
@@ -2433,7 +2434,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53514191583368842</v>
+        <v>3.9853440300362641E-2</v>
       </c>
       <c r="B45" s="2">
         <v>104</v>
@@ -2460,7 +2461,7 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25600132288132083</v>
+        <v>0.42720313031823265</v>
       </c>
       <c r="B46" s="2">
         <v>153</v>
@@ -2484,7 +2485,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4044600551216737E-2</v>
+        <v>0.13114867191135182</v>
       </c>
       <c r="B47" s="2">
         <v>140</v>
@@ -2508,7 +2509,7 @@
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73388049220162987</v>
+        <v>0.80269855155412917</v>
       </c>
       <c r="B48" s="2">
         <v>92</v>
@@ -2532,7 +2533,7 @@
     <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98648073062721553</v>
+        <v>0.8418305194750314</v>
       </c>
       <c r="B49" s="2">
         <v>114</v>
@@ -2559,7 +2560,7 @@
     <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80551903882854203</v>
+        <v>0.555112378447007</v>
       </c>
       <c r="B50" s="2">
         <v>143</v>
@@ -2580,7 +2581,7 @@
     <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4406212513303105E-2</v>
+        <v>0.11087228664202531</v>
       </c>
       <c r="B51" s="2">
         <v>125</v>
@@ -2607,7 +2608,7 @@
     <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44975321059964968</v>
+        <v>0.1034302469991466</v>
       </c>
       <c r="B52" s="2">
         <v>181</v>
@@ -2628,7 +2629,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77433426455045695</v>
+        <v>0.45743063522338956</v>
       </c>
       <c r="B53" s="2">
         <v>169</v>
@@ -2649,7 +2650,7 @@
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7322760823751855E-2</v>
+        <v>0.56539801565328862</v>
       </c>
       <c r="B54" s="2">
         <v>198</v>
@@ -2670,7 +2671,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18449523132047529</v>
+        <v>0.57074193800411688</v>
       </c>
       <c r="B55" s="2">
         <v>147</v>
@@ -2694,7 +2695,7 @@
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18004813197775715</v>
+        <v>0.88760610985940946</v>
       </c>
       <c r="B56" s="2">
         <v>97</v>
@@ -2718,7 +2719,7 @@
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65059967812898101</v>
+        <v>0.67660216892034697</v>
       </c>
       <c r="B57" s="2">
         <v>167</v>
@@ -2748,7 +2749,7 @@
     <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80616104702433333</v>
+        <v>0.73098080113670616</v>
       </c>
       <c r="B58" s="2">
         <v>166</v>
@@ -2775,7 +2776,7 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4110454767159708E-2</v>
+        <v>0.90810540161870901</v>
       </c>
       <c r="B59" s="2">
         <v>128</v>
@@ -2799,7 +2800,7 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64126073718579701</v>
+        <v>0.79820411790583601</v>
       </c>
       <c r="B60" s="2">
         <v>154</v>
@@ -2823,7 +2824,7 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66713488151165645</v>
+        <v>0.13126041873496741</v>
       </c>
       <c r="B61" s="2">
         <v>144</v>
@@ -2847,7 +2848,7 @@
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89851918017645171</v>
+        <v>0.35169627937271186</v>
       </c>
       <c r="B62" s="2">
         <v>98</v>
@@ -2868,7 +2869,7 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88367961291589159</v>
+        <v>0.73258712643930779</v>
       </c>
       <c r="B63" s="2">
         <v>139</v>
@@ -2892,7 +2893,7 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1105912236939518</v>
+        <v>0.37041415490708607</v>
       </c>
       <c r="B64" s="2">
         <v>94</v>
@@ -2913,7 +2914,7 @@
     <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89094912802774484</v>
+        <v>0.7283685768179412</v>
       </c>
       <c r="B65" s="2">
         <v>157</v>
@@ -2940,7 +2941,7 @@
     <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>2.5886818327347183E-2</v>
+        <v>0.91590319524764352</v>
       </c>
       <c r="B66" s="2">
         <v>101</v>
@@ -2961,7 +2962,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52149332984170838</v>
+        <v>0.28897878168069746</v>
       </c>
       <c r="B67" s="2">
         <v>133</v>
@@ -2988,7 +2989,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54132052868748337</v>
+        <v>0.85748532146328915</v>
       </c>
       <c r="B68" s="2">
         <v>122</v>
@@ -3015,7 +3016,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69397145588074571</v>
+        <v>4.1793874917620544E-3</v>
       </c>
       <c r="B69" s="2">
         <v>150</v>
@@ -3039,7 +3040,7 @@
     <row r="70" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67235390876854828</v>
+        <v>0.5909896150781816</v>
       </c>
       <c r="B70" s="2">
         <v>185</v>
@@ -3066,7 +3067,7 @@
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73153084135065627</v>
+        <v>0.85387609257861741</v>
       </c>
       <c r="B71" s="2">
         <v>195</v>
@@ -3087,7 +3088,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5214221976440334E-2</v>
+        <v>0.92426858423133151</v>
       </c>
       <c r="B72" s="2">
         <v>197</v>
@@ -3108,7 +3109,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22542086959107421</v>
+        <v>0.36893750434071904</v>
       </c>
       <c r="B73" s="2">
         <v>100</v>
@@ -3132,7 +3133,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30110436985877009</v>
+        <v>0.37160402084029653</v>
       </c>
       <c r="B74" s="2">
         <v>84</v>
@@ -3156,7 +3157,7 @@
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93840382200299932</v>
+        <v>0.39641005333509483</v>
       </c>
       <c r="B75" s="2">
         <v>134</v>
@@ -3177,7 +3178,7 @@
     <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46405131378472952</v>
+        <v>0.68343596375318261</v>
       </c>
       <c r="B76" s="2">
         <v>117</v>
@@ -3201,7 +3202,7 @@
     <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2498485285708083</v>
+        <v>0.39122713386916208</v>
       </c>
       <c r="B77" s="2">
         <v>165</v>
@@ -3225,7 +3226,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4973420776152514</v>
+        <v>0.90231526129642803</v>
       </c>
       <c r="B78" s="2">
         <v>173</v>
@@ -3249,7 +3250,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50030708757140352</v>
+        <v>0.72239597689918145</v>
       </c>
       <c r="B79" s="2">
         <v>182</v>
@@ -3270,7 +3271,7 @@
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52973387318734555</v>
+        <v>0.81096083428418053</v>
       </c>
       <c r="B80" s="2">
         <v>168</v>
@@ -3294,7 +3295,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82793840046857881</v>
+        <v>0.56884066247580212</v>
       </c>
       <c r="B81" s="2">
         <v>135</v>
@@ -3318,7 +3319,7 @@
     <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53748331533823357</v>
+        <v>0.15318496717196295</v>
       </c>
       <c r="B82" s="2">
         <v>118</v>
@@ -3345,7 +3346,7 @@
     <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84162535842946884</v>
+        <v>0.62009756539423322</v>
       </c>
       <c r="B83" s="2">
         <v>120</v>
@@ -3369,7 +3370,7 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88748324565307712</v>
+        <v>0.4353827495766861</v>
       </c>
       <c r="B84" s="2">
         <v>96</v>
@@ -3393,7 +3394,7 @@
     <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83499178557351172</v>
+        <v>3.8953403834370071E-2</v>
       </c>
       <c r="B85" s="2">
         <v>159</v>
@@ -3417,7 +3418,7 @@
     <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27148977522276252</v>
+        <v>0.85324534507544203</v>
       </c>
       <c r="B86" s="2">
         <v>83</v>
@@ -3438,7 +3439,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3728357319215404</v>
+        <v>0.26117647315223236</v>
       </c>
       <c r="B87" s="2">
         <v>79</v>
@@ -3462,7 +3463,7 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84634334118662702</v>
+        <v>5.9104729095644903E-2</v>
       </c>
       <c r="B88" s="2">
         <v>171</v>
@@ -3486,7 +3487,7 @@
     <row r="89" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83891352767254279</v>
+        <v>0.93898894088742046</v>
       </c>
       <c r="B89" s="2">
         <v>105</v>
@@ -3513,7 +3514,7 @@
     <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17732258552097691</v>
+        <v>0.1629505921722304</v>
       </c>
       <c r="B90" s="2">
         <v>73</v>
@@ -3537,7 +3538,7 @@
     <row r="91" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32592539322696856</v>
+        <v>0.84733365147059669</v>
       </c>
       <c r="B91" s="2">
         <v>66</v>
@@ -3558,7 +3559,7 @@
     <row r="92" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14480079762029108</v>
+        <v>0.77538685359975501</v>
       </c>
       <c r="B92" s="2">
         <v>63</v>
@@ -3579,7 +3580,7 @@
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3816040936022117</v>
+        <v>2.6599753310947105E-2</v>
       </c>
       <c r="B93" s="2">
         <v>89</v>
@@ -3606,7 +3607,7 @@
     <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45318241126995162</v>
+        <v>0.14846534700318137</v>
       </c>
       <c r="B94" s="2">
         <v>91</v>
@@ -3627,7 +3628,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88785960052176471</v>
+        <v>0.91912505727050875</v>
       </c>
       <c r="B95" s="2">
         <v>93</v>
@@ -3651,7 +3652,7 @@
     <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7127835493900283</v>
+        <v>9.5143846437735657E-2</v>
       </c>
       <c r="B96" s="2">
         <v>137</v>
@@ -3681,7 +3682,7 @@
     <row r="97" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94342737467600424</v>
+        <v>1.7736526221004412E-2</v>
       </c>
       <c r="B97" s="2">
         <v>199</v>
@@ -3705,7 +3706,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ref="A98:A129" ca="1" si="3">RAND()</f>
-        <v>0.91930220272063456</v>
+        <v>1.983058348245248E-2</v>
       </c>
       <c r="B98" s="2">
         <v>77</v>
@@ -3729,7 +3730,7 @@
     <row r="99" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54351596172944727</v>
+        <v>0.26654801272903983</v>
       </c>
       <c r="B99" s="2">
         <v>142</v>
@@ -3753,7 +3754,7 @@
     <row r="100" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38914748420327183</v>
+        <v>9.1666889323581469E-2</v>
       </c>
       <c r="B100" s="2">
         <v>121</v>
@@ -3774,7 +3775,7 @@
     <row r="101" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45636456237023537</v>
+        <v>6.4602526342624089E-2</v>
       </c>
       <c r="B101" s="2">
         <v>65</v>
@@ -3795,7 +3796,7 @@
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70147819559381597</v>
+        <v>0.90474894507836801</v>
       </c>
       <c r="B102" s="2">
         <v>112</v>
@@ -3819,7 +3820,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87610593254215607</v>
+        <v>0.1618475190832549</v>
       </c>
       <c r="B103" s="2">
         <v>129</v>
@@ -3843,7 +3844,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78855158351221144</v>
+        <v>0.36006941678896764</v>
       </c>
       <c r="B104" s="2">
         <v>127</v>
@@ -3867,7 +3868,7 @@
     <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72086456251035291</v>
+        <v>9.1840452428445518E-2</v>
       </c>
       <c r="B105" s="2">
         <v>95</v>
@@ -3891,7 +3892,7 @@
     <row r="106" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91361547145165911</v>
+        <v>0.37753379161381484</v>
       </c>
       <c r="B106" s="2">
         <v>70</v>
@@ -3915,7 +3916,7 @@
     <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10730333987085372</v>
+        <v>9.51516954359376E-2</v>
       </c>
       <c r="B107" s="2">
         <v>119</v>
@@ -3939,7 +3940,7 @@
     <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36773560703281993</v>
+        <v>0.23011861460819216</v>
       </c>
       <c r="B108" s="2">
         <v>88</v>
@@ -3963,7 +3964,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84816535161659179</v>
+        <v>0.61288844715563295</v>
       </c>
       <c r="B109" s="2">
         <v>149</v>
@@ -3987,7 +3988,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88830906552592204</v>
+        <v>2.1206686362977845E-3</v>
       </c>
       <c r="B110" s="2">
         <v>145</v>
@@ -4008,7 +4009,7 @@
     <row r="111" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14158945429484449</v>
+        <v>0.54455649604112621</v>
       </c>
       <c r="B111" s="2">
         <v>103</v>
@@ -4032,7 +4033,7 @@
     <row r="112" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67218418054162088</v>
+        <v>0.95168802103911121</v>
       </c>
       <c r="B112" s="2">
         <v>132</v>
@@ -4053,7 +4054,7 @@
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53560850108914992</v>
+        <v>0.75786003305567451</v>
       </c>
       <c r="B113" s="2">
         <v>186</v>
@@ -4080,7 +4081,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35142458921038355</v>
+        <v>0.98318178963180436</v>
       </c>
       <c r="B114" s="2">
         <v>131</v>
@@ -4104,7 +4105,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75601813462423684</v>
+        <v>0.12248886090797817</v>
       </c>
       <c r="B115" s="2">
         <v>172</v>
@@ -4125,7 +4126,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22478731700832011</v>
+        <v>0.92440529723307008</v>
       </c>
       <c r="B116" s="2">
         <v>193</v>
@@ -4146,7 +4147,7 @@
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69256953674837962</v>
+        <v>0.28720637305530927</v>
       </c>
       <c r="B117" s="2">
         <v>148</v>
@@ -4170,7 +4171,7 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96171795319625653</v>
+        <v>0.53601459300935872</v>
       </c>
       <c r="B118" s="2">
         <v>85</v>
@@ -4194,7 +4195,7 @@
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7194947544955711</v>
+        <v>0.73241046771571117</v>
       </c>
       <c r="B119" s="2">
         <v>67</v>
@@ -4215,7 +4216,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18491195159362828</v>
+        <v>0.52081271152149755</v>
       </c>
       <c r="B120" s="2">
         <v>179</v>
@@ -4236,7 +4237,7 @@
     <row r="121" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24807604124531069</v>
+        <v>0.1461647763216839</v>
       </c>
       <c r="B121" s="2">
         <v>64</v>
@@ -4257,7 +4258,7 @@
     <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41509609099811628</v>
+        <v>0.76319070236965525</v>
       </c>
       <c r="B122" s="2">
         <v>184</v>
@@ -4287,7 +4288,7 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83763733035134591</v>
+        <v>0.59778984418829462</v>
       </c>
       <c r="B123" s="2">
         <v>189</v>
@@ -4308,7 +4309,7 @@
     <row r="124" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38062068213597666</v>
+        <v>0.28068870113564082</v>
       </c>
       <c r="B124" s="2">
         <v>141</v>
@@ -4329,7 +4330,7 @@
     <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36494342241747879</v>
+        <v>9.1724921813273186E-3</v>
       </c>
       <c r="B125" s="2">
         <v>76</v>
@@ -4353,7 +4354,7 @@
     <row r="126" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70088130548558669</v>
+        <v>0.12579024100779801</v>
       </c>
       <c r="B126" s="2">
         <v>158</v>
@@ -4374,7 +4375,7 @@
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44870247607806912</v>
+        <v>0.7645784301827635</v>
       </c>
       <c r="B127" s="2">
         <v>187</v>
@@ -4401,7 +4402,7 @@
     <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63280751166480509</v>
+        <v>0.10709964638819769</v>
       </c>
       <c r="B128" s="2">
         <v>124</v>
@@ -4428,7 +4429,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41664050011662701</v>
+        <v>0.19193710361795124</v>
       </c>
       <c r="B129" s="2">
         <v>71</v>
@@ -4452,7 +4453,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A139" ca="1" si="4">RAND()</f>
-        <v>0.95064783487390059</v>
+        <v>0.28640818320538519</v>
       </c>
       <c r="B130" s="2">
         <v>194</v>
@@ -4473,7 +4474,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10270946518816926</v>
+        <v>0.82780109907341826</v>
       </c>
       <c r="B131" s="2">
         <v>82</v>
@@ -4500,7 +4501,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22413013065620757</v>
+        <v>0.62592233979780376</v>
       </c>
       <c r="B132" s="2">
         <v>188</v>
@@ -4524,7 +4525,7 @@
     <row r="133" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79718013110646724</v>
+        <v>0.94319239065688154</v>
       </c>
       <c r="B133" s="2">
         <v>162</v>
@@ -4551,7 +4552,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52448601262285266</v>
+        <v>0.24085535202727637</v>
       </c>
       <c r="B134" s="2">
         <v>115</v>
@@ -4578,7 +4579,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14345454166157501</v>
+        <v>0.34162799690815138</v>
       </c>
       <c r="B135" s="2">
         <v>80</v>
@@ -4602,7 +4603,7 @@
     <row r="136" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9789944053538957</v>
+        <v>0.16246815699537676</v>
       </c>
       <c r="B136" s="2">
         <v>62</v>
@@ -4623,7 +4624,7 @@
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0646916773726809E-2</v>
+        <v>0.70867509722399391</v>
       </c>
       <c r="B137" s="2">
         <v>152</v>
@@ -4650,7 +4651,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67565298891888215</v>
+        <v>0.92687867781754441</v>
       </c>
       <c r="B138" s="2">
         <v>78</v>
@@ -4674,7 +4675,7 @@
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46075888453454739</v>
+        <v>4.9203985861973276E-2</v>
       </c>
       <c r="B139" s="2">
         <v>164</v>
@@ -4803,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
